--- a/data/evaluation/evaluation_North_Autumn_Beets.xlsx
+++ b/data/evaluation/evaluation_North_Autumn_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3702.608190505682</v>
+        <v>3712.705247896443</v>
       </c>
       <c r="C4" t="n">
-        <v>38090178.27689098</v>
+        <v>38273452.69789398</v>
       </c>
       <c r="D4" t="n">
-        <v>6171.724092738672</v>
+        <v>6186.554186127684</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1114775937598991</v>
+        <v>0.107202385900065</v>
       </c>
     </row>
     <row r="5">
